--- a/media/reports/MonoFazSok.xlsx
+++ b/media/reports/MonoFazSok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="2820" windowWidth="7476" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rapor Sayfası" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Listesi" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Rapor Sayfası'!$A$1:$O$68</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Rapor Sayfası'!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -620,259 +620,268 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="102">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="24" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="23" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="25" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="26" fillId="8" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="8" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="8" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="31" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>5</col>
@@ -883,17 +892,17 @@
     <ext cx="323850" cy="2952750"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -908,17 +917,17 @@
     <ext cx="9563100" cy="3733800"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1212,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1220,46 +1229,46 @@
   </sheetPr>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.33203125" customWidth="1" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="5.6640625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="5.21875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="5.88671875" customWidth="1" style="12" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="12" min="6" max="6"/>
-    <col width="19.88671875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="15.77734375" customWidth="1" style="12" min="8" max="8"/>
-    <col width="13.5546875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="8.5546875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="14.109375" customWidth="1" style="12" min="11" max="11"/>
-    <col width="13.88671875" customWidth="1" style="12" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="12" min="13" max="13"/>
-    <col width="7.88671875" customWidth="1" style="12" min="14" max="14"/>
-    <col width="10.33203125" customWidth="1" style="12" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" width="13.33203125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="7.6640625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="5.6640625"/>
+    <col customWidth="1" max="4" min="4" style="12" width="5.21875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="5.88671875"/>
+    <col customWidth="1" max="6" min="6" style="12" width="8.88671875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="19.88671875"/>
+    <col customWidth="1" max="8" min="8" style="12" width="15.77734375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="13.5546875"/>
+    <col customWidth="1" max="10" min="10" style="12" width="8.5546875"/>
+    <col customWidth="1" max="11" min="11" style="12" width="14.109375"/>
+    <col customWidth="1" max="12" min="12" style="12" width="13.88671875"/>
+    <col customWidth="1" max="13" min="13" style="12" width="5.77734375"/>
+    <col customWidth="1" max="14" min="14" style="12" width="7.88671875"/>
+    <col customWidth="1" max="15" min="15" style="12" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="1" thickBot="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Trafo Tipi :</t>
         </is>
       </c>
-      <c r="B1" s="65" t="inlineStr">
+      <c r="B1" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve"> Şok Mono Faz Trafosu  Hesap Ozeti</t>
         </is>
       </c>
-      <c r="C1" s="58" t="n"/>
-      <c r="D1" s="58" t="n"/>
-      <c r="E1" s="58" t="n"/>
-      <c r="F1" s="58" t="n"/>
-      <c r="G1" s="58" t="n"/>
-      <c r="H1" s="58" t="n"/>
+      <c r="C1" s="55" t="n"/>
+      <c r="D1" s="55" t="n"/>
+      <c r="E1" s="55" t="n"/>
+      <c r="F1" s="55" t="n"/>
+      <c r="G1" s="55" t="n"/>
+      <c r="H1" s="55" t="n"/>
       <c r="I1" s="11" t="n"/>
       <c r="J1" s="6" t="inlineStr">
         <is>
@@ -1269,31 +1278,31 @@
       <c r="K1" s="27" t="n"/>
       <c r="L1" s="27" t="n"/>
       <c r="M1" s="27" t="n"/>
-      <c r="N1" s="67" t="n">
-        <v>44328.40345909545</v>
-      </c>
-      <c r="O1" s="59" t="n"/>
-    </row>
-    <row r="2" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A2" s="68" t="inlineStr">
+      <c r="N1" s="80" t="n">
+        <v>44342.45589783779</v>
+      </c>
+      <c r="O1" s="57" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="2" thickBot="1">
+      <c r="A2" s="61" t="inlineStr">
         <is>
           <t>Değerler</t>
         </is>
       </c>
-      <c r="B2" s="58" t="n"/>
-      <c r="C2" s="58" t="n"/>
-      <c r="D2" s="58" t="n"/>
-      <c r="E2" s="58" t="n"/>
-      <c r="F2" s="58" t="n"/>
-      <c r="G2" s="58" t="n"/>
-      <c r="H2" s="58" t="n"/>
-      <c r="I2" s="58" t="n"/>
-      <c r="J2" s="58" t="n"/>
-      <c r="K2" s="58" t="n"/>
-      <c r="L2" s="58" t="n"/>
-      <c r="M2" s="58" t="n"/>
-      <c r="N2" s="58" t="n"/>
-      <c r="O2" s="59" t="n"/>
+      <c r="B2" s="55" t="n"/>
+      <c r="C2" s="55" t="n"/>
+      <c r="D2" s="55" t="n"/>
+      <c r="E2" s="55" t="n"/>
+      <c r="F2" s="55" t="n"/>
+      <c r="G2" s="55" t="n"/>
+      <c r="H2" s="55" t="n"/>
+      <c r="I2" s="55" t="n"/>
+      <c r="J2" s="55" t="n"/>
+      <c r="K2" s="55" t="n"/>
+      <c r="L2" s="55" t="n"/>
+      <c r="M2" s="55" t="n"/>
+      <c r="N2" s="55" t="n"/>
+      <c r="O2" s="57" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1301,40 +1310,40 @@
           <t>Güç :</t>
         </is>
       </c>
-      <c r="B3" s="60" t="inlineStr">
+      <c r="B3" s="81" t="inlineStr">
         <is>
           <t>16950.0 VA</t>
         </is>
       </c>
-      <c r="C3" s="80" t="n"/>
-      <c r="D3" s="80" t="n"/>
-      <c r="E3" s="80" t="n"/>
-      <c r="F3" s="62" t="n"/>
+      <c r="C3" s="82" t="n"/>
+      <c r="D3" s="82" t="n"/>
+      <c r="E3" s="82" t="n"/>
+      <c r="F3" s="60" t="n"/>
       <c r="G3" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Al) :</t>
         </is>
       </c>
-      <c r="H3" s="61" t="inlineStr">
-        <is>
-          <t>8.841 kg</t>
-        </is>
-      </c>
-      <c r="I3" s="62" t="n"/>
-      <c r="J3" s="81" t="inlineStr">
+      <c r="H3" s="83" t="inlineStr">
+        <is>
+          <t>10.398 kg</t>
+        </is>
+      </c>
+      <c r="I3" s="60" t="n"/>
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">Karkas Ölçüleri : </t>
         </is>
       </c>
-      <c r="K3" s="70" t="n"/>
-      <c r="L3" s="82" t="inlineStr">
+      <c r="K3" s="63" t="n"/>
+      <c r="L3" s="85" t="inlineStr">
         <is>
           <t>50.0 x 50.0 x 143.0</t>
         </is>
       </c>
-      <c r="M3" s="69" t="n"/>
-      <c r="N3" s="69" t="n"/>
-      <c r="O3" s="70" t="n"/>
+      <c r="M3" s="62" t="n"/>
+      <c r="N3" s="62" t="n"/>
+      <c r="O3" s="63" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1342,34 +1351,34 @@
           <t>Sac kk :</t>
         </is>
       </c>
-      <c r="B4" s="60" t="inlineStr">
+      <c r="B4" s="81" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="C4" s="80" t="n"/>
-      <c r="D4" s="80" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="62" t="n"/>
+      <c r="C4" s="82" t="n"/>
+      <c r="D4" s="82" t="n"/>
+      <c r="E4" s="82" t="n"/>
+      <c r="F4" s="60" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Al):</t>
         </is>
       </c>
-      <c r="H4" s="61" t="inlineStr"/>
-      <c r="I4" s="62" t="n"/>
-      <c r="J4" s="83" t="inlineStr">
+      <c r="H4" s="83" t="inlineStr"/>
+      <c r="I4" s="60" t="n"/>
+      <c r="J4" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Trafo Ölçüleri : </t>
         </is>
       </c>
-      <c r="K4" s="84" t="n"/>
-      <c r="L4" s="85" t="inlineStr">
+      <c r="K4" s="87" t="n"/>
+      <c r="L4" s="88" t="inlineStr">
         <is>
           <t>0.0 x 0.0 x 0.0 x 0.0 x 0.0</t>
         </is>
       </c>
-      <c r="O4" s="84" t="n"/>
+      <c r="O4" s="87" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1377,38 +1386,38 @@
           <t>Sac ©</t>
         </is>
       </c>
-      <c r="B5" s="60" t="inlineStr">
+      <c r="B5" s="81" t="inlineStr">
         <is>
           <t>0.35 mm</t>
         </is>
       </c>
-      <c r="C5" s="80" t="n"/>
-      <c r="D5" s="80" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="62" t="n"/>
+      <c r="C5" s="82" t="n"/>
+      <c r="D5" s="82" t="n"/>
+      <c r="E5" s="82" t="n"/>
+      <c r="F5" s="60" t="n"/>
       <c r="G5" s="9" t="inlineStr">
         <is>
           <t>Primer Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H5" s="61" t="inlineStr">
+      <c r="H5" s="83" t="inlineStr">
         <is>
           <t>0.0 kg</t>
         </is>
       </c>
-      <c r="I5" s="62" t="n"/>
-      <c r="J5" s="83" t="inlineStr">
+      <c r="I5" s="60" t="n"/>
+      <c r="J5" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Klemens &amp; Ayak : </t>
         </is>
       </c>
-      <c r="K5" s="84" t="n"/>
-      <c r="L5" s="85" t="inlineStr">
+      <c r="K5" s="87" t="n"/>
+      <c r="L5" s="88" t="inlineStr">
         <is>
           <t>TRV4M / 25.0 / 18.0 - 84 Kose</t>
         </is>
       </c>
-      <c r="O5" s="84" t="n"/>
+      <c r="O5" s="87" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1416,91 +1425,91 @@
           <t>Gauss :</t>
         </is>
       </c>
-      <c r="B6" s="60" t="inlineStr">
+      <c r="B6" s="81" t="inlineStr">
         <is>
           <t>12000.0</t>
         </is>
       </c>
-      <c r="C6" s="80" t="n"/>
-      <c r="D6" s="80" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="62" t="n"/>
+      <c r="C6" s="82" t="n"/>
+      <c r="D6" s="82" t="n"/>
+      <c r="E6" s="82" t="n"/>
+      <c r="F6" s="60" t="n"/>
       <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Sekonder Agirlik(Cu) :</t>
         </is>
       </c>
-      <c r="H6" s="61" t="inlineStr"/>
-      <c r="I6" s="62" t="n"/>
-      <c r="J6" s="83" t="inlineStr">
+      <c r="H6" s="83" t="inlineStr"/>
+      <c r="I6" s="60" t="n"/>
+      <c r="J6" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Sac Agirlik : </t>
         </is>
       </c>
-      <c r="K6" s="84" t="n"/>
-      <c r="L6" s="85" t="inlineStr">
+      <c r="K6" s="87" t="n"/>
+      <c r="L6" s="88" t="inlineStr">
         <is>
           <t>5.755 kg(EI Sac)</t>
         </is>
       </c>
-      <c r="O6" s="84" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" thickBot="1">
+      <c r="O6" s="87" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" thickBot="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Frekans :</t>
         </is>
       </c>
-      <c r="B7" s="60" t="inlineStr">
+      <c r="B7" s="81" t="inlineStr">
         <is>
           <t>50.0 Hz</t>
         </is>
       </c>
-      <c r="C7" s="80" t="n"/>
-      <c r="D7" s="80" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="62" t="n"/>
+      <c r="C7" s="82" t="n"/>
+      <c r="D7" s="82" t="n"/>
+      <c r="E7" s="82" t="n"/>
+      <c r="F7" s="60" t="n"/>
       <c r="G7" s="10" t="inlineStr">
         <is>
           <t>Toplam Agirlik :</t>
         </is>
       </c>
-      <c r="H7" s="61" t="inlineStr">
-        <is>
-          <t>Al:8.841 //  Cu:0.0kg</t>
-        </is>
-      </c>
-      <c r="I7" s="62" t="n"/>
-      <c r="J7" s="86" t="n"/>
-      <c r="K7" s="87" t="n"/>
+      <c r="H7" s="83" t="inlineStr">
+        <is>
+          <t>Al:10.398 //  Cu:0.0kg</t>
+        </is>
+      </c>
+      <c r="I7" s="60" t="n"/>
+      <c r="J7" s="89" t="n"/>
+      <c r="K7" s="90" t="n"/>
       <c r="L7" s="32" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
       <c r="O7" s="33" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="8" thickBot="1">
       <c r="A8" s="1" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="57" t="inlineStr">
+    <row customHeight="1" ht="15" r="9" thickBot="1">
+      <c r="A9" s="76" t="inlineStr">
         <is>
           <t>Primer</t>
         </is>
       </c>
-      <c r="B9" s="58" t="n"/>
-      <c r="C9" s="58" t="n"/>
-      <c r="D9" s="58" t="n"/>
-      <c r="E9" s="58" t="n"/>
-      <c r="F9" s="58" t="n"/>
-      <c r="G9" s="59" t="n"/>
+      <c r="B9" s="55" t="n"/>
+      <c r="C9" s="55" t="n"/>
+      <c r="D9" s="55" t="n"/>
+      <c r="E9" s="55" t="n"/>
+      <c r="F9" s="55" t="n"/>
+      <c r="G9" s="57" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="K9" s="88" t="inlineStr">
+      <c r="K9" s="91" t="inlineStr">
         <is>
           <t>Hesap Değerleri</t>
         </is>
       </c>
-      <c r="L9" s="70" t="n"/>
+      <c r="L9" s="63" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
     </row>
@@ -1514,16 +1523,16 @@
       <c r="I10" s="1" t="n"/>
       <c r="K10" s="46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hava Aralığı </t>
+          <t>Boşluk</t>
         </is>
       </c>
       <c r="L10" s="50" t="n">
-        <v>-41.25</v>
+        <v>-51.88</v>
       </c>
       <c r="O10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="inlineStr">
+      <c r="A11" s="92" t="inlineStr">
         <is>
           <t>1 NOLU KADEME:</t>
         </is>
@@ -1534,13 +1543,13 @@
           <t>Endüktans(mH)</t>
         </is>
       </c>
-      <c r="L11" s="90" t="n">
-        <v>0.599</v>
+      <c r="L11" s="93" t="n">
+        <v>0.6</v>
       </c>
       <c r="M11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="91" t="inlineStr">
+      <c r="A12" s="94" t="inlineStr">
         <is>
           <t>Tel :</t>
         </is>
@@ -1566,7 +1575,7 @@
       <c r="M12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="91" t="inlineStr">
+      <c r="A13" s="94" t="inlineStr">
         <is>
           <t>Cap :</t>
         </is>
@@ -1590,7 +1599,7 @@
       <c r="M13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="91" t="inlineStr">
+      <c r="A14" s="94" t="inlineStr">
         <is>
           <t>Kesit :</t>
         </is>
@@ -1616,7 +1625,7 @@
       <c r="O14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="91" t="inlineStr">
+      <c r="A15" s="94" t="inlineStr">
         <is>
           <t>Akim :</t>
         </is>
@@ -1642,13 +1651,13 @@
       <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="91" t="inlineStr">
+      <c r="A16" s="94" t="inlineStr">
         <is>
           <t>Kat :</t>
         </is>
       </c>
       <c r="B16" s="26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="21" t="n"/>
       <c r="D16" s="21" t="n"/>
@@ -1661,18 +1670,18 @@
         </is>
       </c>
       <c r="L16" s="51" t="n">
-        <v>78.12</v>
+        <v>25</v>
       </c>
       <c r="M16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="91" t="inlineStr">
+      <c r="A17" s="94" t="inlineStr">
         <is>
           <t>Uzunluk :</t>
         </is>
       </c>
       <c r="B17" s="26" t="n">
-        <v>19.2625</v>
+        <v>22.65375</v>
       </c>
       <c r="C17" s="21" t="n"/>
       <c r="D17" s="21" t="n"/>
@@ -1685,13 +1694,13 @@
         </is>
       </c>
       <c r="L17" s="51" t="n">
-        <v>25</v>
+        <v>78.12</v>
       </c>
       <c r="M17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="92" t="inlineStr"/>
-      <c r="C18" s="91" t="inlineStr">
+      <c r="B18" s="95" t="inlineStr"/>
+      <c r="C18" s="94" t="inlineStr">
         <is>
           <t>-- Teller --</t>
         </is>
@@ -1711,8 +1720,8 @@
       <c r="M18" s="25" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="19">
+      <c r="A19" s="94" t="inlineStr">
         <is>
           <t>Yuv. Tel :</t>
         </is>
@@ -1723,7 +1732,7 @@
       <c r="E19" s="24" t="n"/>
       <c r="G19" s="17" t="inlineStr">
         <is>
-          <t>41 sp</t>
+          <t>45.5 sp</t>
         </is>
       </c>
       <c r="I19" s="23" t="n"/>
@@ -1734,13 +1743,13 @@
         </is>
       </c>
       <c r="L19" s="51" t="n">
-        <v>3.772</v>
+        <v>3.074</v>
       </c>
       <c r="M19" s="24" t="n"/>
       <c r="O19" s="17" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="20">
+      <c r="A20" s="94" t="inlineStr">
         <is>
           <t>Ytel Agr :</t>
         </is>
@@ -1757,17 +1766,17 @@
         </is>
       </c>
       <c r="L20" s="51" t="n">
-        <v>4.265</v>
+        <v>3.787</v>
       </c>
       <c r="M20" s="26" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="21">
+      <c r="A21" s="94" t="inlineStr">
         <is>
           <t>Kare Tel :</t>
         </is>
       </c>
-      <c r="B21" s="93" t="inlineStr">
+      <c r="B21" s="96" t="inlineStr">
         <is>
           <t>17.0x10.0</t>
         </is>
@@ -1783,18 +1792,18 @@
         </is>
       </c>
       <c r="L21" s="51" t="n">
-        <v>41.078</v>
+        <v>43.596</v>
       </c>
       <c r="M21" s="24" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="22">
+      <c r="A22" s="94" t="inlineStr">
         <is>
           <t>Ktel Agr :</t>
         </is>
       </c>
-      <c r="B22" s="93" t="n">
-        <v>8.841487500000001</v>
+      <c r="B22" s="96" t="n">
+        <v>10.39807125</v>
       </c>
       <c r="C22" s="26" t="n"/>
       <c r="D22" s="26" t="n"/>
@@ -1807,12 +1816,12 @@
         </is>
       </c>
       <c r="L22" s="51" t="n">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="M22" s="26" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="23">
+      <c r="A23" s="94" t="inlineStr">
         <is>
           <t>Folyo :</t>
         </is>
@@ -1829,12 +1838,12 @@
         </is>
       </c>
       <c r="L23" s="51" t="n">
-        <v>4.182</v>
+        <v>3.698</v>
       </c>
       <c r="M23" s="24" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="24">
+      <c r="A24" s="94" t="inlineStr">
         <is>
           <t>Folyo Agr :</t>
         </is>
@@ -1851,12 +1860,12 @@
         </is>
       </c>
       <c r="L24" s="51" t="n">
-        <v>40.794</v>
+        <v>43.211</v>
       </c>
       <c r="M24" s="26" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="91" t="inlineStr">
+    <row customHeight="1" ht="15" r="25">
+      <c r="A25" s="94" t="inlineStr">
         <is>
           <t>Kapton :</t>
         </is>
@@ -1879,7 +1888,7 @@
       <c r="M25" s="24" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="26">
       <c r="K26" s="47" t="inlineStr">
         <is>
           <t>f_man</t>
@@ -1889,23 +1898,23 @@
         <v>4.264</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="27" thickBot="1">
       <c r="K27" s="49" t="inlineStr">
         <is>
           <t>Sp_man</t>
         </is>
       </c>
       <c r="L27" s="52" t="n">
-        <v>41.075</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1" thickBot="1"/>
-    <row r="30" ht="15" customHeight="1" thickBot="1"/>
-    <row r="31" ht="15" customHeight="1" thickBot="1"/>
-    <row r="32" ht="15" customHeight="1" thickBot="1"/>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
-    <row r="34" ht="15" customHeight="1" thickBot="1">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28"/>
+    <row customHeight="1" ht="15" r="29" thickBot="1"/>
+    <row customHeight="1" ht="15" r="30" thickBot="1"/>
+    <row customHeight="1" ht="15" r="31" thickBot="1"/>
+    <row customHeight="1" ht="15" r="32" thickBot="1"/>
+    <row customHeight="1" ht="15" r="33" thickBot="1"/>
+    <row customHeight="1" ht="15" r="34" thickBot="1">
       <c r="B34" s="34" t="inlineStr">
         <is>
           <t>IZOLASYON DEGERLERI</t>
@@ -1917,15 +1926,15 @@
       <c r="F34" s="35" t="n"/>
       <c r="G34" s="15" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="94" t="inlineStr">
+    <row customHeight="1" ht="15" r="35" thickBot="1">
+      <c r="B35" s="97" t="inlineStr">
         <is>
           <t>Primer Kademe</t>
         </is>
       </c>
-      <c r="C35" s="58" t="n"/>
-      <c r="D35" s="58" t="n"/>
-      <c r="E35" s="59" t="n"/>
+      <c r="C35" s="55" t="n"/>
+      <c r="D35" s="55" t="n"/>
+      <c r="E35" s="57" t="n"/>
       <c r="F35" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1937,15 +1946,15 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="95" t="inlineStr">
+    <row customHeight="1" ht="15" r="36" thickBot="1">
+      <c r="B36" s="98" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C36" s="58" t="n"/>
-      <c r="D36" s="58" t="n"/>
-      <c r="E36" s="96" t="n"/>
+      <c r="C36" s="55" t="n"/>
+      <c r="D36" s="55" t="n"/>
+      <c r="E36" s="99" t="n"/>
       <c r="F36" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -1957,15 +1966,15 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="B37" s="94" t="inlineStr">
+    <row customHeight="1" ht="15" r="37" thickBot="1">
+      <c r="B37" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve">VA Kademe </t>
         </is>
       </c>
-      <c r="C37" s="58" t="n"/>
-      <c r="D37" s="58" t="n"/>
-      <c r="E37" s="59" t="n"/>
+      <c r="C37" s="55" t="n"/>
+      <c r="D37" s="55" t="n"/>
+      <c r="E37" s="57" t="n"/>
       <c r="F37" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -1977,15 +1986,15 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="95" t="inlineStr">
+    <row customHeight="1" ht="15" r="38" thickBot="1">
+      <c r="B38" s="98" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C38" s="58" t="n"/>
-      <c r="D38" s="58" t="n"/>
-      <c r="E38" s="96" t="n"/>
+      <c r="C38" s="55" t="n"/>
+      <c r="D38" s="55" t="n"/>
+      <c r="E38" s="99" t="n"/>
       <c r="F38" s="18" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -1997,15 +2006,15 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="94" t="inlineStr">
+    <row customHeight="1" ht="15" r="39" thickBot="1">
+      <c r="B39" s="97" t="inlineStr">
         <is>
           <t>Primer-Sekonder</t>
         </is>
       </c>
-      <c r="C39" s="58" t="n"/>
-      <c r="D39" s="58" t="n"/>
-      <c r="E39" s="59" t="n"/>
+      <c r="C39" s="55" t="n"/>
+      <c r="D39" s="55" t="n"/>
+      <c r="E39" s="57" t="n"/>
       <c r="F39" s="7" t="inlineStr">
         <is>
           <t>Tur</t>
@@ -2013,15 +2022,15 @@
       </c>
       <c r="G39" s="8" t="n"/>
     </row>
-    <row r="40" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="95" t="inlineStr">
+    <row customHeight="1" ht="15" r="40" thickBot="1">
+      <c r="B40" s="98" t="inlineStr">
         <is>
           <t>Yok</t>
         </is>
       </c>
-      <c r="C40" s="58" t="n"/>
-      <c r="D40" s="58" t="n"/>
-      <c r="E40" s="96" t="n"/>
+      <c r="C40" s="55" t="n"/>
+      <c r="D40" s="55" t="n"/>
+      <c r="E40" s="99" t="n"/>
       <c r="F40" s="20" t="inlineStr">
         <is>
           <t>Yok</t>
@@ -2029,7 +2038,7 @@
       </c>
       <c r="G40" s="16" t="n"/>
     </row>
-    <row r="41" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="41" thickBot="1">
       <c r="B41" s="34" t="inlineStr">
         <is>
           <t>NÜVE ÖLÇÜLERİ (mm)</t>
@@ -2041,7 +2050,7 @@
       <c r="F41" s="35" t="n"/>
       <c r="G41" s="35" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="15" r="42" thickBot="1">
       <c r="B42" s="7" t="inlineStr">
         <is>
           <t>a</t>
@@ -2171,6 +2180,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -2187,14 +2204,6 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
@@ -2203,9 +2212,9 @@
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="58" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="58" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2224,10 +2233,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.44140625" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="25" min="3" max="3"/>
-    <col width="19.77734375" customWidth="1" style="25" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="4.44140625"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" style="25" width="19.33203125"/>
+    <col customWidth="1" max="4" min="4" style="25" width="19.77734375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2237,10 +2246,10 @@
           <t>Malzeme Listesi</t>
         </is>
       </c>
-      <c r="C1" s="97" t="n"/>
-      <c r="D1" s="97" t="n"/>
-      <c r="E1" s="97" t="n"/>
-      <c r="F1" s="98" t="n"/>
+      <c r="C1" s="100" t="n"/>
+      <c r="D1" s="100" t="n"/>
+      <c r="E1" s="100" t="n"/>
+      <c r="F1" s="101" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="42" t="n"/>
@@ -2277,7 +2286,7 @@
         </is>
       </c>
       <c r="D3" s="45" t="n">
-        <v>8.841487500000001</v>
+        <v>10.39807125</v>
       </c>
       <c r="E3" s="42" t="n"/>
       <c r="F3" s="42" t="n"/>
@@ -2596,7 +2605,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="256" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="256" verticalDpi="300"/>
 </worksheet>
 </file>